--- a/regen-data-2019.xlsx
+++ b/regen-data-2019.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12480" tabRatio="896" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850" tabRatio="896"/>
   </bookViews>
   <sheets>
     <sheet name="seedling" sheetId="34" r:id="rId1"/>
@@ -870,10 +870,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R928"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2505" topLeftCell="A7" activePane="bottomLeft"/>
-      <selection activeCell="C368" sqref="C368"/>
-      <selection pane="bottomLeft" activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2505" topLeftCell="A486" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A500" sqref="A500:XFD500"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -91483,7 +91482,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
